--- a/biology/Médecine/Tumeur_épithéliale_mixte/Tumeur_épithéliale_mixte.xlsx
+++ b/biology/Médecine/Tumeur_épithéliale_mixte/Tumeur_épithéliale_mixte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tumeur_%C3%A9pith%C3%A9liale_mixte</t>
+          <t>Tumeur_épithéliale_mixte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les tumeurs épithéliales mixtes sont une classe de tumeurs solides de la Classification internationale des maladies oncologiques. Elles sont formées à partir de plusieurs lignées cellulaires différentes, dont au moins une lignée issue d'un épithélium, comme un thymome ou un adénome pléïomorphe.
  Portail de la médecine   Portail de la biologie cellulaire et moléculaire                    </t>
